--- a/Data/UpdateOverview/updateLijstKaarthouders.xlsx
+++ b/Data/UpdateOverview/updateLijstKaarthouders.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\51059992\Adecco\NL Modis - RPA Consultancy - Interne processen\RPAProcessen\4.0 - NSBotModis\Data\UpdateOverview\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\51059992\Adecco\NL Modis - RPA Consultancy - Interne processen\RPAProcessen\4.1 - NS_BusinessCards_Akkodis\Data\UpdateOverview\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5F670FA5-0742-432F-AF88-59993E0FCB10}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B4071C1B-2EDE-40EB-8F17-0002EA1151A1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{482F20F7-C494-44BE-8C82-C440A2BB2055}"/>
   </bookViews>
@@ -159,9 +159,6 @@
     <t>3528 0704 0137 8070</t>
   </si>
   <si>
-    <t xml:space="preserve">Cerianne Slagmolen </t>
-  </si>
-  <si>
     <t>3528 0104 8803 2406</t>
   </si>
   <si>
@@ -760,6 +757,9 @@
   </si>
   <si>
     <t xml:space="preserve">Anna Spiridakis </t>
+  </si>
+  <si>
+    <t>Jantje</t>
   </si>
 </sst>
 </file>
@@ -1114,7 +1114,7 @@
   <dimension ref="A1:B121"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I27" sqref="I27"/>
+      <selection activeCell="B22" sqref="B22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1284,807 +1284,807 @@
         <v>40</v>
       </c>
       <c r="B21" t="s">
-        <v>41</v>
+        <v>241</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
+        <v>41</v>
+      </c>
+      <c r="B22" t="s">
         <v>42</v>
-      </c>
-      <c r="B22" t="s">
-        <v>43</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
+        <v>43</v>
+      </c>
+      <c r="B23" t="s">
         <v>44</v>
-      </c>
-      <c r="B23" t="s">
-        <v>45</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
+        <v>45</v>
+      </c>
+      <c r="B24" t="s">
         <v>46</v>
-      </c>
-      <c r="B24" t="s">
-        <v>47</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
+        <v>47</v>
+      </c>
+      <c r="B25" t="s">
         <v>48</v>
-      </c>
-      <c r="B25" t="s">
-        <v>49</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
+        <v>49</v>
+      </c>
+      <c r="B26" t="s">
         <v>50</v>
-      </c>
-      <c r="B26" t="s">
-        <v>51</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
+        <v>51</v>
+      </c>
+      <c r="B27" t="s">
         <v>52</v>
-      </c>
-      <c r="B27" t="s">
-        <v>53</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
+        <v>53</v>
+      </c>
+      <c r="B28" t="s">
         <v>54</v>
-      </c>
-      <c r="B28" t="s">
-        <v>55</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
+        <v>55</v>
+      </c>
+      <c r="B29" t="s">
         <v>56</v>
-      </c>
-      <c r="B29" t="s">
-        <v>57</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
+        <v>57</v>
+      </c>
+      <c r="B30" t="s">
         <v>58</v>
-      </c>
-      <c r="B30" t="s">
-        <v>59</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
+        <v>59</v>
+      </c>
+      <c r="B31" t="s">
         <v>60</v>
-      </c>
-      <c r="B31" t="s">
-        <v>61</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
+        <v>61</v>
+      </c>
+      <c r="B32" t="s">
         <v>62</v>
-      </c>
-      <c r="B32" t="s">
-        <v>63</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
+        <v>63</v>
+      </c>
+      <c r="B33" t="s">
         <v>64</v>
-      </c>
-      <c r="B33" t="s">
-        <v>65</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
+        <v>65</v>
+      </c>
+      <c r="B34" t="s">
         <v>66</v>
-      </c>
-      <c r="B34" t="s">
-        <v>67</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
+        <v>67</v>
+      </c>
+      <c r="B35" t="s">
         <v>68</v>
-      </c>
-      <c r="B35" t="s">
-        <v>69</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
+        <v>69</v>
+      </c>
+      <c r="B36" t="s">
         <v>70</v>
-      </c>
-      <c r="B36" t="s">
-        <v>71</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
+        <v>71</v>
+      </c>
+      <c r="B37" t="s">
         <v>72</v>
-      </c>
-      <c r="B37" t="s">
-        <v>73</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
+        <v>73</v>
+      </c>
+      <c r="B38" t="s">
         <v>74</v>
-      </c>
-      <c r="B38" t="s">
-        <v>75</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
+        <v>75</v>
+      </c>
+      <c r="B39" t="s">
         <v>76</v>
-      </c>
-      <c r="B39" t="s">
-        <v>77</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
+        <v>77</v>
+      </c>
+      <c r="B40" t="s">
         <v>78</v>
-      </c>
-      <c r="B40" t="s">
-        <v>79</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
+        <v>79</v>
+      </c>
+      <c r="B41" t="s">
         <v>80</v>
-      </c>
-      <c r="B41" t="s">
-        <v>81</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
+        <v>81</v>
+      </c>
+      <c r="B42" t="s">
         <v>82</v>
-      </c>
-      <c r="B42" t="s">
-        <v>83</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
+        <v>83</v>
+      </c>
+      <c r="B43" t="s">
         <v>84</v>
-      </c>
-      <c r="B43" t="s">
-        <v>85</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
+        <v>85</v>
+      </c>
+      <c r="B44" t="s">
         <v>86</v>
-      </c>
-      <c r="B44" t="s">
-        <v>87</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
+        <v>87</v>
+      </c>
+      <c r="B45" t="s">
         <v>88</v>
-      </c>
-      <c r="B45" t="s">
-        <v>89</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
+        <v>89</v>
+      </c>
+      <c r="B46" t="s">
         <v>90</v>
-      </c>
-      <c r="B46" t="s">
-        <v>91</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
+        <v>91</v>
+      </c>
+      <c r="B47" t="s">
         <v>92</v>
-      </c>
-      <c r="B47" t="s">
-        <v>93</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
+        <v>93</v>
+      </c>
+      <c r="B48" t="s">
         <v>94</v>
-      </c>
-      <c r="B48" t="s">
-        <v>95</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
+        <v>95</v>
+      </c>
+      <c r="B49" t="s">
         <v>96</v>
-      </c>
-      <c r="B49" t="s">
-        <v>97</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
+        <v>97</v>
+      </c>
+      <c r="B50" t="s">
         <v>98</v>
-      </c>
-      <c r="B50" t="s">
-        <v>99</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
+        <v>99</v>
+      </c>
+      <c r="B51" t="s">
         <v>100</v>
-      </c>
-      <c r="B51" t="s">
-        <v>101</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
+        <v>101</v>
+      </c>
+      <c r="B52" t="s">
         <v>102</v>
-      </c>
-      <c r="B52" t="s">
-        <v>103</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
+        <v>103</v>
+      </c>
+      <c r="B53" t="s">
         <v>104</v>
-      </c>
-      <c r="B53" t="s">
-        <v>105</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
+        <v>105</v>
+      </c>
+      <c r="B54" t="s">
         <v>106</v>
-      </c>
-      <c r="B54" t="s">
-        <v>107</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
+        <v>107</v>
+      </c>
+      <c r="B55" t="s">
         <v>108</v>
-      </c>
-      <c r="B55" t="s">
-        <v>109</v>
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
+        <v>109</v>
+      </c>
+      <c r="B56" t="s">
         <v>110</v>
-      </c>
-      <c r="B56" t="s">
-        <v>111</v>
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
+        <v>111</v>
+      </c>
+      <c r="B57" t="s">
         <v>112</v>
-      </c>
-      <c r="B57" t="s">
-        <v>113</v>
       </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
+        <v>113</v>
+      </c>
+      <c r="B58" t="s">
         <v>114</v>
-      </c>
-      <c r="B58" t="s">
-        <v>115</v>
       </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
+        <v>115</v>
+      </c>
+      <c r="B59" t="s">
         <v>116</v>
-      </c>
-      <c r="B59" t="s">
-        <v>117</v>
       </c>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
+        <v>117</v>
+      </c>
+      <c r="B60" t="s">
         <v>118</v>
-      </c>
-      <c r="B60" t="s">
-        <v>119</v>
       </c>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
+        <v>119</v>
+      </c>
+      <c r="B61" t="s">
         <v>120</v>
-      </c>
-      <c r="B61" t="s">
-        <v>121</v>
       </c>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
+        <v>121</v>
+      </c>
+      <c r="B62" t="s">
         <v>122</v>
-      </c>
-      <c r="B62" t="s">
-        <v>123</v>
       </c>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
+        <v>123</v>
+      </c>
+      <c r="B63" t="s">
         <v>124</v>
-      </c>
-      <c r="B63" t="s">
-        <v>125</v>
       </c>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
+        <v>125</v>
+      </c>
+      <c r="B64" t="s">
         <v>126</v>
-      </c>
-      <c r="B64" t="s">
-        <v>127</v>
       </c>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
+        <v>127</v>
+      </c>
+      <c r="B65" t="s">
         <v>128</v>
-      </c>
-      <c r="B65" t="s">
-        <v>129</v>
       </c>
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
+        <v>129</v>
+      </c>
+      <c r="B66" t="s">
         <v>130</v>
-      </c>
-      <c r="B66" t="s">
-        <v>131</v>
       </c>
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
+        <v>131</v>
+      </c>
+      <c r="B67" t="s">
         <v>132</v>
-      </c>
-      <c r="B67" t="s">
-        <v>133</v>
       </c>
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
+        <v>133</v>
+      </c>
+      <c r="B68" t="s">
         <v>134</v>
-      </c>
-      <c r="B68" t="s">
-        <v>135</v>
       </c>
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
+        <v>135</v>
+      </c>
+      <c r="B69" t="s">
         <v>136</v>
-      </c>
-      <c r="B69" t="s">
-        <v>137</v>
       </c>
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
+        <v>137</v>
+      </c>
+      <c r="B70" t="s">
         <v>138</v>
-      </c>
-      <c r="B70" t="s">
-        <v>139</v>
       </c>
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
+        <v>139</v>
+      </c>
+      <c r="B71" t="s">
         <v>140</v>
-      </c>
-      <c r="B71" t="s">
-        <v>141</v>
       </c>
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
+        <v>141</v>
+      </c>
+      <c r="B72" t="s">
         <v>142</v>
-      </c>
-      <c r="B72" t="s">
-        <v>143</v>
       </c>
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
+        <v>143</v>
+      </c>
+      <c r="B73" t="s">
         <v>144</v>
-      </c>
-      <c r="B73" t="s">
-        <v>145</v>
       </c>
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
+        <v>145</v>
+      </c>
+      <c r="B74" t="s">
         <v>146</v>
-      </c>
-      <c r="B74" t="s">
-        <v>147</v>
       </c>
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
+        <v>147</v>
+      </c>
+      <c r="B75" t="s">
         <v>148</v>
-      </c>
-      <c r="B75" t="s">
-        <v>149</v>
       </c>
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
+        <v>149</v>
+      </c>
+      <c r="B76" t="s">
         <v>150</v>
-      </c>
-      <c r="B76" t="s">
-        <v>151</v>
       </c>
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
+        <v>151</v>
+      </c>
+      <c r="B77" t="s">
         <v>152</v>
-      </c>
-      <c r="B77" t="s">
-        <v>153</v>
       </c>
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
+        <v>153</v>
+      </c>
+      <c r="B78" t="s">
         <v>154</v>
-      </c>
-      <c r="B78" t="s">
-        <v>155</v>
       </c>
     </row>
     <row r="79" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
+        <v>155</v>
+      </c>
+      <c r="B79" t="s">
         <v>156</v>
-      </c>
-      <c r="B79" t="s">
-        <v>157</v>
       </c>
     </row>
     <row r="80" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
+        <v>157</v>
+      </c>
+      <c r="B80" t="s">
         <v>158</v>
-      </c>
-      <c r="B80" t="s">
-        <v>159</v>
       </c>
     </row>
     <row r="81" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
+        <v>159</v>
+      </c>
+      <c r="B81" t="s">
         <v>160</v>
-      </c>
-      <c r="B81" t="s">
-        <v>161</v>
       </c>
     </row>
     <row r="82" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
+        <v>161</v>
+      </c>
+      <c r="B82" t="s">
         <v>162</v>
-      </c>
-      <c r="B82" t="s">
-        <v>163</v>
       </c>
     </row>
     <row r="83" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
+        <v>163</v>
+      </c>
+      <c r="B83" t="s">
         <v>164</v>
-      </c>
-      <c r="B83" t="s">
-        <v>165</v>
       </c>
     </row>
     <row r="84" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
+        <v>165</v>
+      </c>
+      <c r="B84" t="s">
         <v>166</v>
-      </c>
-      <c r="B84" t="s">
-        <v>167</v>
       </c>
     </row>
     <row r="85" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
+        <v>167</v>
+      </c>
+      <c r="B85" t="s">
         <v>168</v>
-      </c>
-      <c r="B85" t="s">
-        <v>169</v>
       </c>
     </row>
     <row r="86" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
+        <v>169</v>
+      </c>
+      <c r="B86" t="s">
         <v>170</v>
-      </c>
-      <c r="B86" t="s">
-        <v>171</v>
       </c>
     </row>
     <row r="87" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
+        <v>171</v>
+      </c>
+      <c r="B87" t="s">
         <v>172</v>
-      </c>
-      <c r="B87" t="s">
-        <v>173</v>
       </c>
     </row>
     <row r="88" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
+        <v>173</v>
+      </c>
+      <c r="B88" t="s">
         <v>174</v>
-      </c>
-      <c r="B88" t="s">
-        <v>175</v>
       </c>
     </row>
     <row r="89" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
+        <v>175</v>
+      </c>
+      <c r="B89" t="s">
         <v>176</v>
-      </c>
-      <c r="B89" t="s">
-        <v>177</v>
       </c>
     </row>
     <row r="90" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
+        <v>177</v>
+      </c>
+      <c r="B90" t="s">
         <v>178</v>
-      </c>
-      <c r="B90" t="s">
-        <v>179</v>
       </c>
     </row>
     <row r="91" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
+        <v>179</v>
+      </c>
+      <c r="B91" t="s">
         <v>180</v>
-      </c>
-      <c r="B91" t="s">
-        <v>181</v>
       </c>
     </row>
     <row r="92" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
+        <v>181</v>
+      </c>
+      <c r="B92" t="s">
         <v>182</v>
-      </c>
-      <c r="B92" t="s">
-        <v>183</v>
       </c>
     </row>
     <row r="93" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
+        <v>183</v>
+      </c>
+      <c r="B93" t="s">
         <v>184</v>
-      </c>
-      <c r="B93" t="s">
-        <v>185</v>
       </c>
     </row>
     <row r="94" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
+        <v>185</v>
+      </c>
+      <c r="B94" t="s">
         <v>186</v>
-      </c>
-      <c r="B94" t="s">
-        <v>187</v>
       </c>
     </row>
     <row r="95" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
+        <v>187</v>
+      </c>
+      <c r="B95" t="s">
         <v>188</v>
-      </c>
-      <c r="B95" t="s">
-        <v>189</v>
       </c>
     </row>
     <row r="96" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
+        <v>189</v>
+      </c>
+      <c r="B96" t="s">
         <v>190</v>
-      </c>
-      <c r="B96" t="s">
-        <v>191</v>
       </c>
     </row>
     <row r="97" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
+        <v>191</v>
+      </c>
+      <c r="B97" t="s">
         <v>192</v>
-      </c>
-      <c r="B97" t="s">
-        <v>193</v>
       </c>
     </row>
     <row r="98" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
+        <v>193</v>
+      </c>
+      <c r="B98" t="s">
         <v>194</v>
-      </c>
-      <c r="B98" t="s">
-        <v>195</v>
       </c>
     </row>
     <row r="99" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
+        <v>195</v>
+      </c>
+      <c r="B99" t="s">
         <v>196</v>
-      </c>
-      <c r="B99" t="s">
-        <v>197</v>
       </c>
     </row>
     <row r="100" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
+        <v>197</v>
+      </c>
+      <c r="B100" t="s">
         <v>198</v>
-      </c>
-      <c r="B100" t="s">
-        <v>199</v>
       </c>
     </row>
     <row r="101" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
+        <v>199</v>
+      </c>
+      <c r="B101" t="s">
         <v>200</v>
-      </c>
-      <c r="B101" t="s">
-        <v>201</v>
       </c>
     </row>
     <row r="102" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
+        <v>201</v>
+      </c>
+      <c r="B102" t="s">
         <v>202</v>
-      </c>
-      <c r="B102" t="s">
-        <v>203</v>
       </c>
     </row>
     <row r="103" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
+        <v>203</v>
+      </c>
+      <c r="B103" t="s">
         <v>204</v>
-      </c>
-      <c r="B103" t="s">
-        <v>205</v>
       </c>
     </row>
     <row r="104" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
+        <v>205</v>
+      </c>
+      <c r="B104" t="s">
         <v>206</v>
-      </c>
-      <c r="B104" t="s">
-        <v>207</v>
       </c>
     </row>
     <row r="105" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
+        <v>207</v>
+      </c>
+      <c r="B105" t="s">
         <v>208</v>
-      </c>
-      <c r="B105" t="s">
-        <v>209</v>
       </c>
     </row>
     <row r="106" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
+        <v>209</v>
+      </c>
+      <c r="B106" t="s">
         <v>210</v>
-      </c>
-      <c r="B106" t="s">
-        <v>211</v>
       </c>
     </row>
     <row r="107" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
+        <v>211</v>
+      </c>
+      <c r="B107" t="s">
         <v>212</v>
-      </c>
-      <c r="B107" t="s">
-        <v>213</v>
       </c>
     </row>
     <row r="108" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
+        <v>213</v>
+      </c>
+      <c r="B108" t="s">
         <v>214</v>
-      </c>
-      <c r="B108" t="s">
-        <v>215</v>
       </c>
     </row>
     <row r="109" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
+        <v>215</v>
+      </c>
+      <c r="B109" t="s">
         <v>216</v>
-      </c>
-      <c r="B109" t="s">
-        <v>217</v>
       </c>
     </row>
     <row r="110" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
+        <v>217</v>
+      </c>
+      <c r="B110" t="s">
         <v>218</v>
-      </c>
-      <c r="B110" t="s">
-        <v>219</v>
       </c>
     </row>
     <row r="111" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
+        <v>219</v>
+      </c>
+      <c r="B111" t="s">
         <v>220</v>
-      </c>
-      <c r="B111" t="s">
-        <v>221</v>
       </c>
     </row>
     <row r="112" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
+        <v>221</v>
+      </c>
+      <c r="B112" t="s">
         <v>222</v>
-      </c>
-      <c r="B112" t="s">
-        <v>223</v>
       </c>
     </row>
     <row r="113" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
+        <v>223</v>
+      </c>
+      <c r="B113" t="s">
         <v>224</v>
-      </c>
-      <c r="B113" t="s">
-        <v>225</v>
       </c>
     </row>
     <row r="114" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
+        <v>225</v>
+      </c>
+      <c r="B114" t="s">
         <v>226</v>
-      </c>
-      <c r="B114" t="s">
-        <v>227</v>
       </c>
     </row>
     <row r="115" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
+        <v>227</v>
+      </c>
+      <c r="B115" t="s">
         <v>228</v>
-      </c>
-      <c r="B115" t="s">
-        <v>229</v>
       </c>
     </row>
     <row r="116" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
+        <v>229</v>
+      </c>
+      <c r="B116" t="s">
         <v>230</v>
-      </c>
-      <c r="B116" t="s">
-        <v>231</v>
       </c>
     </row>
     <row r="117" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
+        <v>231</v>
+      </c>
+      <c r="B117" t="s">
         <v>232</v>
-      </c>
-      <c r="B117" t="s">
-        <v>233</v>
       </c>
     </row>
     <row r="118" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
+        <v>233</v>
+      </c>
+      <c r="B118" t="s">
         <v>234</v>
-      </c>
-      <c r="B118" t="s">
-        <v>235</v>
       </c>
     </row>
     <row r="119" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
+        <v>235</v>
+      </c>
+      <c r="B119" t="s">
         <v>236</v>
-      </c>
-      <c r="B119" t="s">
-        <v>237</v>
       </c>
     </row>
     <row r="120" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
+        <v>237</v>
+      </c>
+      <c r="B120" t="s">
         <v>238</v>
-      </c>
-      <c r="B120" t="s">
-        <v>239</v>
       </c>
     </row>
     <row r="121" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
+        <v>239</v>
+      </c>
+      <c r="B121" t="s">
         <v>240</v>
-      </c>
-      <c r="B121" t="s">
-        <v>241</v>
       </c>
     </row>
   </sheetData>
@@ -2339,9 +2339,28 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E5411D97-649D-435C-BD59-E1E1E6A04296}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E5411D97-649D-435C-BD59-E1E1E6A04296}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="c9baad2c-391d-4b9a-9dd4-ae5129a59b42"/>
+    <ds:schemaRef ds:uri="f8e3fad1-b81e-44e9-8986-43b539e13ca6"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BFD47CC6-32A5-4620-8F5E-343A0178A3D6}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BFD47CC6-32A5-4620-8F5E-343A0178A3D6}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>